--- a/data/out.xlsx
+++ b/data/out.xlsx
@@ -195,7 +195,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -230,6 +230,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1314,7 +1320,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1362,13 +1368,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>8625</v>
+        <v>9120</v>
       </c>
       <c r="D3" s="6">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -1379,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="10">
-        <v>8625</v>
+        <v>9120</v>
       </c>
       <c r="D4" s="10">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E4" s="11">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -1396,13 +1402,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="10">
-        <v>8625</v>
+        <v>9120</v>
       </c>
       <c r="D5" s="10">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E5" s="11">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -1410,16 +1416,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10">
-        <v>8625</v>
+        <v>9120</v>
       </c>
       <c r="D6" s="10">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E6" s="11">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -1430,13 +1436,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>8825</v>
+        <v>9120</v>
       </c>
       <c r="D7" s="10">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E7" s="11">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -1444,16 +1450,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="10">
-        <v>9025</v>
+        <v>9120</v>
       </c>
       <c r="D8" s="10">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" s="11">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -1461,16 +1467,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10">
-        <v>9225</v>
+        <v>9120</v>
       </c>
       <c r="D9" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E9" s="11">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -1478,16 +1484,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="9">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>9425</v>
+        <v>9120</v>
       </c>
       <c r="D10" s="10">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E10" s="11">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -1495,51 +1501,215 @@
         <v>8</v>
       </c>
       <c r="B11" s="9">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10">
-        <v>9625</v>
+        <v>9120</v>
       </c>
       <c r="D11" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10">
-        <v>9625</v>
-      </c>
-      <c r="D12" s="10">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11">
-        <v>8</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
-        <v>9625</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="8">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="8">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="8">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="8">
+        <v>25</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="8">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="8">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="8">
+        <v>28</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="8">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="8">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/out.xlsx
+++ b/data/out.xlsx
@@ -1368,13 +1368,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D3" s="6">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7">
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -1385,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D4" s="10">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="E4" s="11">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -1402,13 +1402,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D5" s="10">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E5" s="11">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -1416,16 +1416,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D6" s="10">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E6" s="11">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -1433,16 +1433,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D7" s="10">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E7" s="11">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -1453,13 +1453,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D8" s="10">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -1467,16 +1467,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D9" s="10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E9" s="11">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -1487,13 +1487,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D10" s="10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10" s="11">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -1504,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="10">
-        <v>9120</v>
+        <v>7840</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>

--- a/data/out.xlsx
+++ b/data/out.xlsx
@@ -195,7 +195,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -230,12 +230,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1320,7 +1314,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1368,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>7840</v>
+        <v>8515</v>
       </c>
       <c r="D3" s="6">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="E3" s="7">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -1385,13 +1379,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="10">
-        <v>7840</v>
+        <v>8515</v>
       </c>
       <c r="D4" s="10">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -1402,13 +1396,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="10">
-        <v>7840</v>
+        <v>8515</v>
       </c>
       <c r="D5" s="10">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="E5" s="11">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -1416,16 +1410,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10">
-        <v>7840</v>
+        <v>8515</v>
       </c>
       <c r="D6" s="10">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E6" s="11">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -1433,13 +1427,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
-        <v>7840</v>
+        <v>8715</v>
       </c>
       <c r="D7" s="10">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11">
         <v>72</v>
@@ -1450,16 +1444,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10">
-        <v>7840</v>
+        <v>8915</v>
       </c>
       <c r="D8" s="10">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E8" s="11">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -1467,16 +1461,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="9">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10">
-        <v>7840</v>
+        <v>9115</v>
       </c>
       <c r="D9" s="10">
         <v>36</v>
       </c>
       <c r="E9" s="11">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -1484,16 +1478,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10">
-        <v>7840</v>
+        <v>9315</v>
       </c>
       <c r="D10" s="10">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -1501,215 +1495,51 @@
         <v>8</v>
       </c>
       <c r="B11" s="9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>7840</v>
+        <v>9515</v>
       </c>
       <c r="D11" s="10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
+        <v>9515</v>
+      </c>
+      <c r="D12" s="10">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="8">
+      <c r="B13" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="8">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="8">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="8">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8">
-        <v>19</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="8">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="8">
-        <v>22</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="8">
-        <v>23</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="8">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="8">
-        <v>25</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="8">
-        <v>26</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="8">
-        <v>27</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="8">
-        <v>28</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="8">
-        <v>29</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="8">
-        <v>30</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="C13" s="11">
+        <v>9515</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
